--- a/設計書/01_基本設計（外部設計）/状態遷移図.xlsx
+++ b/設計書/01_基本設計（外部設計）/状態遷移図.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
   <si>
     <t>プロジェクト</t>
   </si>
@@ -360,6 +360,10 @@
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="10"/>
+  </si>
 </sst>
 </file>
 
@@ -1094,6 +1098,141 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1103,33 +1242,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1164,114 +1276,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1321,15 +1325,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1655</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:colOff>1654</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>3362</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>24</xdr:col>
-          <xdr:colOff>240299</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>828</xdr:rowOff>
+          <xdr:col>29</xdr:col>
+          <xdr:colOff>8451</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>89647</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1338,7 +1342,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="work!$B$2:$K$15" spid="_x0000_s1050"/>
+                  <a14:cameraTool cellRange="work!$B$2:$K$15" spid="_x0000_s1054"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1351,8 +1355,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="531742" y="867189"/>
-              <a:ext cx="6069600" cy="2438400"/>
+              <a:off x="539536" y="843803"/>
+              <a:ext cx="7268209" cy="2775697"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1383,14 +1387,14 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>156888</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>168417</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>1044</xdr:rowOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>267263</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>140088</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1399,7 +1403,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="work!$B$17:$I$32" spid="_x0000_s1051"/>
+                  <a14:cameraTool cellRange="work!$B$17:$I$32" spid="_x0000_s1055"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1412,8 +1416,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="530087" y="3478696"/>
-              <a:ext cx="4939200" cy="2784000"/>
+              <a:off x="537882" y="3854829"/>
+              <a:ext cx="5915028" cy="3176877"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2617,201 +2621,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="str">
+      <c r="A1" s="87" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="71" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="87" t="str">
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="91" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="71" t="s">
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71" t="s">
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="71"/>
-      <c r="AQ1" s="71"/>
-      <c r="AR1" s="71"/>
-      <c r="AS1" s="71" t="s">
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="71"/>
-      <c r="AU1" s="71"/>
-      <c r="AV1" s="71"/>
-      <c r="AW1" s="71"/>
-      <c r="AX1" s="71" t="s">
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="71"/>
-      <c r="AZ1" s="72"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="77"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="73" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="74" t="str">
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="75">
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="80">
         <v>42608</v>
       </c>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="77" t="s">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="74"/>
-      <c r="AP2" s="74"/>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="81"/>
-      <c r="AT2" s="81"/>
-      <c r="AU2" s="81"/>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="81"/>
-      <c r="AX2" s="74"/>
-      <c r="AY2" s="74"/>
-      <c r="AZ2" s="79"/>
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="79"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="83"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="78" t="str">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="89" t="s">
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="78" t="str">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="55" t="str">
         <f>設定情報!$C$5</f>
         <v>状態遷移図</v>
       </c>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="78"/>
-      <c r="AR3" s="78"/>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="82"/>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="78"/>
-      <c r="AZ3" s="80"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="81"/>
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="86"/>
+      <c r="AT3" s="86"/>
+      <c r="AU3" s="86"/>
+      <c r="AV3" s="86"/>
+      <c r="AW3" s="86"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="84"/>
     </row>
     <row r="4" spans="1:52" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
@@ -2979,1098 +2983,1098 @@
     </row>
     <row r="7" spans="1:52" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="93" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="90" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="90" t="s">
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="91"/>
-      <c r="AJ7" s="91"/>
-      <c r="AK7" s="91"/>
-      <c r="AL7" s="91"/>
-      <c r="AM7" s="91"/>
-      <c r="AN7" s="91"/>
-      <c r="AO7" s="91"/>
-      <c r="AP7" s="91"/>
-      <c r="AQ7" s="91"/>
-      <c r="AR7" s="91"/>
-      <c r="AS7" s="91"/>
-      <c r="AT7" s="91"/>
-      <c r="AU7" s="91"/>
-      <c r="AV7" s="91"/>
-      <c r="AW7" s="91"/>
-      <c r="AX7" s="91"/>
-      <c r="AY7" s="92"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="58"/>
       <c r="AZ7" s="14"/>
     </row>
     <row r="8" spans="1:52" s="11" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
-      <c r="Z8" s="104"/>
-      <c r="AA8" s="104"/>
-      <c r="AB8" s="104"/>
-      <c r="AC8" s="104"/>
-      <c r="AD8" s="104"/>
-      <c r="AE8" s="104"/>
-      <c r="AF8" s="104"/>
-      <c r="AG8" s="104"/>
-      <c r="AH8" s="104"/>
-      <c r="AI8" s="104"/>
-      <c r="AJ8" s="104"/>
-      <c r="AK8" s="104"/>
-      <c r="AL8" s="104"/>
-      <c r="AM8" s="104"/>
-      <c r="AN8" s="104"/>
-      <c r="AO8" s="104"/>
-      <c r="AP8" s="104"/>
-      <c r="AQ8" s="104"/>
-      <c r="AR8" s="104"/>
-      <c r="AS8" s="104"/>
-      <c r="AT8" s="104"/>
-      <c r="AU8" s="104"/>
-      <c r="AV8" s="104"/>
-      <c r="AW8" s="104"/>
-      <c r="AX8" s="104"/>
-      <c r="AY8" s="105"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="72"/>
+      <c r="AT8" s="72"/>
+      <c r="AU8" s="72"/>
+      <c r="AV8" s="72"/>
+      <c r="AW8" s="72"/>
+      <c r="AX8" s="72"/>
+      <c r="AY8" s="73"/>
       <c r="AZ8" s="21"/>
     </row>
     <row r="9" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
-      <c r="B9" s="53">
+      <c r="B9" s="47">
         <v>1</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56">
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50">
         <v>42604</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="96" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="50" t="s">
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="51"/>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="51"/>
-      <c r="AK9" s="51"/>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="51"/>
-      <c r="AR9" s="51"/>
-      <c r="AS9" s="51"/>
-      <c r="AT9" s="51"/>
-      <c r="AU9" s="51"/>
-      <c r="AV9" s="51"/>
-      <c r="AW9" s="51"/>
-      <c r="AX9" s="51"/>
-      <c r="AY9" s="52"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
+      <c r="AD9" s="63"/>
+      <c r="AE9" s="63"/>
+      <c r="AF9" s="63"/>
+      <c r="AG9" s="63"/>
+      <c r="AH9" s="63"/>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="63"/>
+      <c r="AK9" s="63"/>
+      <c r="AL9" s="63"/>
+      <c r="AM9" s="63"/>
+      <c r="AN9" s="63"/>
+      <c r="AO9" s="63"/>
+      <c r="AP9" s="63"/>
+      <c r="AQ9" s="63"/>
+      <c r="AR9" s="63"/>
+      <c r="AS9" s="63"/>
+      <c r="AT9" s="63"/>
+      <c r="AU9" s="63"/>
+      <c r="AV9" s="63"/>
+      <c r="AW9" s="63"/>
+      <c r="AX9" s="63"/>
+      <c r="AY9" s="64"/>
       <c r="AZ9" s="21"/>
     </row>
     <row r="10" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="51"/>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="51"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="51"/>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="51"/>
-      <c r="AS10" s="51"/>
-      <c r="AT10" s="51"/>
-      <c r="AU10" s="51"/>
-      <c r="AV10" s="51"/>
-      <c r="AW10" s="51"/>
-      <c r="AX10" s="51"/>
-      <c r="AY10" s="52"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="63"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="63"/>
+      <c r="AM10" s="63"/>
+      <c r="AN10" s="63"/>
+      <c r="AO10" s="63"/>
+      <c r="AP10" s="63"/>
+      <c r="AQ10" s="63"/>
+      <c r="AR10" s="63"/>
+      <c r="AS10" s="63"/>
+      <c r="AT10" s="63"/>
+      <c r="AU10" s="63"/>
+      <c r="AV10" s="63"/>
+      <c r="AW10" s="63"/>
+      <c r="AX10" s="63"/>
+      <c r="AY10" s="64"/>
       <c r="AZ10" s="21"/>
     </row>
     <row r="11" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="51"/>
-      <c r="AF11" s="51"/>
-      <c r="AG11" s="51"/>
-      <c r="AH11" s="51"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="51"/>
-      <c r="AK11" s="51"/>
-      <c r="AL11" s="51"/>
-      <c r="AM11" s="51"/>
-      <c r="AN11" s="51"/>
-      <c r="AO11" s="51"/>
-      <c r="AP11" s="51"/>
-      <c r="AQ11" s="51"/>
-      <c r="AR11" s="51"/>
-      <c r="AS11" s="51"/>
-      <c r="AT11" s="51"/>
-      <c r="AU11" s="51"/>
-      <c r="AV11" s="51"/>
-      <c r="AW11" s="51"/>
-      <c r="AX11" s="51"/>
-      <c r="AY11" s="52"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="63"/>
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="63"/>
+      <c r="AK11" s="63"/>
+      <c r="AL11" s="63"/>
+      <c r="AM11" s="63"/>
+      <c r="AN11" s="63"/>
+      <c r="AO11" s="63"/>
+      <c r="AP11" s="63"/>
+      <c r="AQ11" s="63"/>
+      <c r="AR11" s="63"/>
+      <c r="AS11" s="63"/>
+      <c r="AT11" s="63"/>
+      <c r="AU11" s="63"/>
+      <c r="AV11" s="63"/>
+      <c r="AW11" s="63"/>
+      <c r="AX11" s="63"/>
+      <c r="AY11" s="64"/>
       <c r="AZ11" s="21"/>
     </row>
     <row r="12" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="51"/>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51"/>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="51"/>
-      <c r="AR12" s="51"/>
-      <c r="AS12" s="51"/>
-      <c r="AT12" s="51"/>
-      <c r="AU12" s="51"/>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="52"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="63"/>
+      <c r="AL12" s="63"/>
+      <c r="AM12" s="63"/>
+      <c r="AN12" s="63"/>
+      <c r="AO12" s="63"/>
+      <c r="AP12" s="63"/>
+      <c r="AQ12" s="63"/>
+      <c r="AR12" s="63"/>
+      <c r="AS12" s="63"/>
+      <c r="AT12" s="63"/>
+      <c r="AU12" s="63"/>
+      <c r="AV12" s="63"/>
+      <c r="AW12" s="63"/>
+      <c r="AX12" s="63"/>
+      <c r="AY12" s="64"/>
       <c r="AZ12" s="21"/>
     </row>
     <row r="13" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="51"/>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="51"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="51"/>
-      <c r="AR13" s="51"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="51"/>
-      <c r="AU13" s="51"/>
-      <c r="AV13" s="51"/>
-      <c r="AW13" s="51"/>
-      <c r="AX13" s="51"/>
-      <c r="AY13" s="52"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
+      <c r="AD13" s="63"/>
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="63"/>
+      <c r="AJ13" s="63"/>
+      <c r="AK13" s="63"/>
+      <c r="AL13" s="63"/>
+      <c r="AM13" s="63"/>
+      <c r="AN13" s="63"/>
+      <c r="AO13" s="63"/>
+      <c r="AP13" s="63"/>
+      <c r="AQ13" s="63"/>
+      <c r="AR13" s="63"/>
+      <c r="AS13" s="63"/>
+      <c r="AT13" s="63"/>
+      <c r="AU13" s="63"/>
+      <c r="AV13" s="63"/>
+      <c r="AW13" s="63"/>
+      <c r="AX13" s="63"/>
+      <c r="AY13" s="64"/>
       <c r="AZ13" s="21"/>
     </row>
     <row r="14" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="51"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="52"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63"/>
+      <c r="AG14" s="63"/>
+      <c r="AH14" s="63"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="63"/>
+      <c r="AM14" s="63"/>
+      <c r="AN14" s="63"/>
+      <c r="AO14" s="63"/>
+      <c r="AP14" s="63"/>
+      <c r="AQ14" s="63"/>
+      <c r="AR14" s="63"/>
+      <c r="AS14" s="63"/>
+      <c r="AT14" s="63"/>
+      <c r="AU14" s="63"/>
+      <c r="AV14" s="63"/>
+      <c r="AW14" s="63"/>
+      <c r="AX14" s="63"/>
+      <c r="AY14" s="64"/>
       <c r="AZ14" s="21"/>
     </row>
     <row r="15" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="51"/>
-      <c r="AN15" s="51"/>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="51"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="51"/>
-      <c r="AU15" s="51"/>
-      <c r="AV15" s="51"/>
-      <c r="AW15" s="51"/>
-      <c r="AX15" s="51"/>
-      <c r="AY15" s="52"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="63"/>
+      <c r="AM15" s="63"/>
+      <c r="AN15" s="63"/>
+      <c r="AO15" s="63"/>
+      <c r="AP15" s="63"/>
+      <c r="AQ15" s="63"/>
+      <c r="AR15" s="63"/>
+      <c r="AS15" s="63"/>
+      <c r="AT15" s="63"/>
+      <c r="AU15" s="63"/>
+      <c r="AV15" s="63"/>
+      <c r="AW15" s="63"/>
+      <c r="AX15" s="63"/>
+      <c r="AY15" s="64"/>
       <c r="AZ15" s="21"/>
     </row>
     <row r="16" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
-      <c r="AD16" s="51"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="51"/>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="51"/>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="51"/>
-      <c r="AR16" s="51"/>
-      <c r="AS16" s="51"/>
-      <c r="AT16" s="51"/>
-      <c r="AU16" s="51"/>
-      <c r="AV16" s="51"/>
-      <c r="AW16" s="51"/>
-      <c r="AX16" s="51"/>
-      <c r="AY16" s="52"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
+      <c r="AM16" s="63"/>
+      <c r="AN16" s="63"/>
+      <c r="AO16" s="63"/>
+      <c r="AP16" s="63"/>
+      <c r="AQ16" s="63"/>
+      <c r="AR16" s="63"/>
+      <c r="AS16" s="63"/>
+      <c r="AT16" s="63"/>
+      <c r="AU16" s="63"/>
+      <c r="AV16" s="63"/>
+      <c r="AW16" s="63"/>
+      <c r="AX16" s="63"/>
+      <c r="AY16" s="64"/>
       <c r="AZ16" s="21"/>
     </row>
     <row r="17" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="51"/>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="51"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="51"/>
-      <c r="AL17" s="51"/>
-      <c r="AM17" s="51"/>
-      <c r="AN17" s="51"/>
-      <c r="AO17" s="51"/>
-      <c r="AP17" s="51"/>
-      <c r="AQ17" s="51"/>
-      <c r="AR17" s="51"/>
-      <c r="AS17" s="51"/>
-      <c r="AT17" s="51"/>
-      <c r="AU17" s="51"/>
-      <c r="AV17" s="51"/>
-      <c r="AW17" s="51"/>
-      <c r="AX17" s="51"/>
-      <c r="AY17" s="52"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="63"/>
+      <c r="AM17" s="63"/>
+      <c r="AN17" s="63"/>
+      <c r="AO17" s="63"/>
+      <c r="AP17" s="63"/>
+      <c r="AQ17" s="63"/>
+      <c r="AR17" s="63"/>
+      <c r="AS17" s="63"/>
+      <c r="AT17" s="63"/>
+      <c r="AU17" s="63"/>
+      <c r="AV17" s="63"/>
+      <c r="AW17" s="63"/>
+      <c r="AX17" s="63"/>
+      <c r="AY17" s="64"/>
       <c r="AZ17" s="21"/>
     </row>
     <row r="18" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="51"/>
-      <c r="AL18" s="51"/>
-      <c r="AM18" s="51"/>
-      <c r="AN18" s="51"/>
-      <c r="AO18" s="51"/>
-      <c r="AP18" s="51"/>
-      <c r="AQ18" s="51"/>
-      <c r="AR18" s="51"/>
-      <c r="AS18" s="51"/>
-      <c r="AT18" s="51"/>
-      <c r="AU18" s="51"/>
-      <c r="AV18" s="51"/>
-      <c r="AW18" s="51"/>
-      <c r="AX18" s="51"/>
-      <c r="AY18" s="52"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="63"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="63"/>
+      <c r="AP18" s="63"/>
+      <c r="AQ18" s="63"/>
+      <c r="AR18" s="63"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="63"/>
+      <c r="AU18" s="63"/>
+      <c r="AV18" s="63"/>
+      <c r="AW18" s="63"/>
+      <c r="AX18" s="63"/>
+      <c r="AY18" s="64"/>
       <c r="AZ18" s="21"/>
     </row>
     <row r="19" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
-      <c r="AK19" s="51"/>
-      <c r="AL19" s="51"/>
-      <c r="AM19" s="51"/>
-      <c r="AN19" s="51"/>
-      <c r="AO19" s="51"/>
-      <c r="AP19" s="51"/>
-      <c r="AQ19" s="51"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
-      <c r="AT19" s="51"/>
-      <c r="AU19" s="51"/>
-      <c r="AV19" s="51"/>
-      <c r="AW19" s="51"/>
-      <c r="AX19" s="51"/>
-      <c r="AY19" s="52"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="63"/>
+      <c r="AM19" s="63"/>
+      <c r="AN19" s="63"/>
+      <c r="AO19" s="63"/>
+      <c r="AP19" s="63"/>
+      <c r="AQ19" s="63"/>
+      <c r="AR19" s="63"/>
+      <c r="AS19" s="63"/>
+      <c r="AT19" s="63"/>
+      <c r="AU19" s="63"/>
+      <c r="AV19" s="63"/>
+      <c r="AW19" s="63"/>
+      <c r="AX19" s="63"/>
+      <c r="AY19" s="64"/>
       <c r="AZ19" s="21"/>
     </row>
     <row r="20" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="51"/>
-      <c r="AG20" s="51"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="51"/>
-      <c r="AK20" s="51"/>
-      <c r="AL20" s="51"/>
-      <c r="AM20" s="51"/>
-      <c r="AN20" s="51"/>
-      <c r="AO20" s="51"/>
-      <c r="AP20" s="51"/>
-      <c r="AQ20" s="51"/>
-      <c r="AR20" s="51"/>
-      <c r="AS20" s="51"/>
-      <c r="AT20" s="51"/>
-      <c r="AU20" s="51"/>
-      <c r="AV20" s="51"/>
-      <c r="AW20" s="51"/>
-      <c r="AX20" s="51"/>
-      <c r="AY20" s="52"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="63"/>
+      <c r="AN20" s="63"/>
+      <c r="AO20" s="63"/>
+      <c r="AP20" s="63"/>
+      <c r="AQ20" s="63"/>
+      <c r="AR20" s="63"/>
+      <c r="AS20" s="63"/>
+      <c r="AT20" s="63"/>
+      <c r="AU20" s="63"/>
+      <c r="AV20" s="63"/>
+      <c r="AW20" s="63"/>
+      <c r="AX20" s="63"/>
+      <c r="AY20" s="64"/>
       <c r="AZ20" s="21"/>
     </row>
     <row r="21" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="51"/>
-      <c r="AG21" s="51"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="51"/>
-      <c r="AK21" s="51"/>
-      <c r="AL21" s="51"/>
-      <c r="AM21" s="51"/>
-      <c r="AN21" s="51"/>
-      <c r="AO21" s="51"/>
-      <c r="AP21" s="51"/>
-      <c r="AQ21" s="51"/>
-      <c r="AR21" s="51"/>
-      <c r="AS21" s="51"/>
-      <c r="AT21" s="51"/>
-      <c r="AU21" s="51"/>
-      <c r="AV21" s="51"/>
-      <c r="AW21" s="51"/>
-      <c r="AX21" s="51"/>
-      <c r="AY21" s="52"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
+      <c r="AG21" s="63"/>
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="63"/>
+      <c r="AM21" s="63"/>
+      <c r="AN21" s="63"/>
+      <c r="AO21" s="63"/>
+      <c r="AP21" s="63"/>
+      <c r="AQ21" s="63"/>
+      <c r="AR21" s="63"/>
+      <c r="AS21" s="63"/>
+      <c r="AT21" s="63"/>
+      <c r="AU21" s="63"/>
+      <c r="AV21" s="63"/>
+      <c r="AW21" s="63"/>
+      <c r="AX21" s="63"/>
+      <c r="AY21" s="64"/>
       <c r="AZ21" s="21"/>
     </row>
     <row r="22" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="51"/>
-      <c r="AN22" s="51"/>
-      <c r="AO22" s="51"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="51"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="51"/>
-      <c r="AU22" s="51"/>
-      <c r="AV22" s="51"/>
-      <c r="AW22" s="51"/>
-      <c r="AX22" s="51"/>
-      <c r="AY22" s="52"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="63"/>
+      <c r="AG22" s="63"/>
+      <c r="AH22" s="63"/>
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="63"/>
+      <c r="AK22" s="63"/>
+      <c r="AL22" s="63"/>
+      <c r="AM22" s="63"/>
+      <c r="AN22" s="63"/>
+      <c r="AO22" s="63"/>
+      <c r="AP22" s="63"/>
+      <c r="AQ22" s="63"/>
+      <c r="AR22" s="63"/>
+      <c r="AS22" s="63"/>
+      <c r="AT22" s="63"/>
+      <c r="AU22" s="63"/>
+      <c r="AV22" s="63"/>
+      <c r="AW22" s="63"/>
+      <c r="AX22" s="63"/>
+      <c r="AY22" s="64"/>
       <c r="AZ22" s="21"/>
     </row>
     <row r="23" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="51"/>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="51"/>
-      <c r="AG23" s="51"/>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
-      <c r="AK23" s="51"/>
-      <c r="AL23" s="51"/>
-      <c r="AM23" s="51"/>
-      <c r="AN23" s="51"/>
-      <c r="AO23" s="51"/>
-      <c r="AP23" s="51"/>
-      <c r="AQ23" s="51"/>
-      <c r="AR23" s="51"/>
-      <c r="AS23" s="51"/>
-      <c r="AT23" s="51"/>
-      <c r="AU23" s="51"/>
-      <c r="AV23" s="51"/>
-      <c r="AW23" s="51"/>
-      <c r="AX23" s="51"/>
-      <c r="AY23" s="52"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
+      <c r="AH23" s="63"/>
+      <c r="AI23" s="63"/>
+      <c r="AJ23" s="63"/>
+      <c r="AK23" s="63"/>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="63"/>
+      <c r="AN23" s="63"/>
+      <c r="AO23" s="63"/>
+      <c r="AP23" s="63"/>
+      <c r="AQ23" s="63"/>
+      <c r="AR23" s="63"/>
+      <c r="AS23" s="63"/>
+      <c r="AT23" s="63"/>
+      <c r="AU23" s="63"/>
+      <c r="AV23" s="63"/>
+      <c r="AW23" s="63"/>
+      <c r="AX23" s="63"/>
+      <c r="AY23" s="64"/>
       <c r="AZ23" s="21"/>
     </row>
     <row r="24" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="51"/>
-      <c r="AF24" s="51"/>
-      <c r="AG24" s="51"/>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
-      <c r="AK24" s="51"/>
-      <c r="AL24" s="51"/>
-      <c r="AM24" s="51"/>
-      <c r="AN24" s="51"/>
-      <c r="AO24" s="51"/>
-      <c r="AP24" s="51"/>
-      <c r="AQ24" s="51"/>
-      <c r="AR24" s="51"/>
-      <c r="AS24" s="51"/>
-      <c r="AT24" s="51"/>
-      <c r="AU24" s="51"/>
-      <c r="AV24" s="51"/>
-      <c r="AW24" s="51"/>
-      <c r="AX24" s="51"/>
-      <c r="AY24" s="52"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="63"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="63"/>
+      <c r="AG24" s="63"/>
+      <c r="AH24" s="63"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="63"/>
+      <c r="AK24" s="63"/>
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="63"/>
+      <c r="AN24" s="63"/>
+      <c r="AO24" s="63"/>
+      <c r="AP24" s="63"/>
+      <c r="AQ24" s="63"/>
+      <c r="AR24" s="63"/>
+      <c r="AS24" s="63"/>
+      <c r="AT24" s="63"/>
+      <c r="AU24" s="63"/>
+      <c r="AV24" s="63"/>
+      <c r="AW24" s="63"/>
+      <c r="AX24" s="63"/>
+      <c r="AY24" s="64"/>
       <c r="AZ24" s="21"/>
     </row>
     <row r="25" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="51"/>
-      <c r="AF25" s="51"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="51"/>
-      <c r="AL25" s="51"/>
-      <c r="AM25" s="51"/>
-      <c r="AN25" s="51"/>
-      <c r="AO25" s="51"/>
-      <c r="AP25" s="51"/>
-      <c r="AQ25" s="51"/>
-      <c r="AR25" s="51"/>
-      <c r="AS25" s="51"/>
-      <c r="AT25" s="51"/>
-      <c r="AU25" s="51"/>
-      <c r="AV25" s="51"/>
-      <c r="AW25" s="51"/>
-      <c r="AX25" s="51"/>
-      <c r="AY25" s="52"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="63"/>
+      <c r="AN25" s="63"/>
+      <c r="AO25" s="63"/>
+      <c r="AP25" s="63"/>
+      <c r="AQ25" s="63"/>
+      <c r="AR25" s="63"/>
+      <c r="AS25" s="63"/>
+      <c r="AT25" s="63"/>
+      <c r="AU25" s="63"/>
+      <c r="AV25" s="63"/>
+      <c r="AW25" s="63"/>
+      <c r="AX25" s="63"/>
+      <c r="AY25" s="64"/>
       <c r="AZ25" s="21"/>
     </row>
     <row r="26" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="69"/>
-      <c r="AB26" s="69"/>
-      <c r="AC26" s="69"/>
-      <c r="AD26" s="69"/>
-      <c r="AE26" s="69"/>
-      <c r="AF26" s="69"/>
-      <c r="AG26" s="69"/>
-      <c r="AH26" s="69"/>
-      <c r="AI26" s="69"/>
-      <c r="AJ26" s="69"/>
-      <c r="AK26" s="69"/>
-      <c r="AL26" s="69"/>
-      <c r="AM26" s="69"/>
-      <c r="AN26" s="69"/>
-      <c r="AO26" s="69"/>
-      <c r="AP26" s="69"/>
-      <c r="AQ26" s="69"/>
-      <c r="AR26" s="69"/>
-      <c r="AS26" s="69"/>
-      <c r="AT26" s="69"/>
-      <c r="AU26" s="69"/>
-      <c r="AV26" s="69"/>
-      <c r="AW26" s="69"/>
-      <c r="AX26" s="69"/>
-      <c r="AY26" s="70"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="105"/>
+      <c r="X26" s="105"/>
+      <c r="Y26" s="105"/>
+      <c r="Z26" s="105"/>
+      <c r="AA26" s="105"/>
+      <c r="AB26" s="105"/>
+      <c r="AC26" s="105"/>
+      <c r="AD26" s="105"/>
+      <c r="AE26" s="105"/>
+      <c r="AF26" s="105"/>
+      <c r="AG26" s="105"/>
+      <c r="AH26" s="105"/>
+      <c r="AI26" s="105"/>
+      <c r="AJ26" s="105"/>
+      <c r="AK26" s="105"/>
+      <c r="AL26" s="105"/>
+      <c r="AM26" s="105"/>
+      <c r="AN26" s="105"/>
+      <c r="AO26" s="105"/>
+      <c r="AP26" s="105"/>
+      <c r="AQ26" s="105"/>
+      <c r="AR26" s="105"/>
+      <c r="AS26" s="105"/>
+      <c r="AT26" s="105"/>
+      <c r="AU26" s="105"/>
+      <c r="AV26" s="105"/>
+      <c r="AW26" s="105"/>
+      <c r="AX26" s="105"/>
+      <c r="AY26" s="106"/>
       <c r="AZ26" s="15"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4183,20 +4187,73 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:AY22"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:AY25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:AY10"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:AY26"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:AY23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="Q24:AY24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AY18"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:AY20"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:AY21"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
+    <mergeCell ref="Q11:AY11"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AY13"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AY14"/>
+    <mergeCell ref="Q12:AY12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AY15"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:M3"/>
     <mergeCell ref="B7:D7"/>
@@ -4213,73 +4270,20 @@
     <mergeCell ref="Q8:AY8"/>
     <mergeCell ref="Q9:AY9"/>
     <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:AY17"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:AY15"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:AY16"/>
-    <mergeCell ref="Q11:AY11"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AY13"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:AY14"/>
-    <mergeCell ref="Q12:AY12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:AY18"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:AY20"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:AY21"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:AY19"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="Q10:AY10"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:AY26"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:AY23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="Q24:AY24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:AY22"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="Q25:AY25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -4302,7 +4306,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4:AL4"/>
-      <selection pane="bottomLeft" activeCell="AF33" sqref="AF33"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4311,201 +4315,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="str">
+      <c r="A1" s="87" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>状態遷移図</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="71" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="87" t="str">
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="91" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="71" t="s">
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71" t="s">
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="71"/>
-      <c r="AQ1" s="71"/>
-      <c r="AR1" s="71"/>
-      <c r="AS1" s="71" t="s">
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="71"/>
-      <c r="AU1" s="71"/>
-      <c r="AV1" s="71"/>
-      <c r="AW1" s="71"/>
-      <c r="AX1" s="71" t="s">
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="71"/>
+      <c r="AY1" s="76"/>
       <c r="AZ1" s="107"/>
     </row>
     <row r="2" spans="1:52" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="73" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="74" t="str">
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="75">
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="80">
         <v>42608</v>
       </c>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="77" t="s">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="74"/>
-      <c r="AP2" s="74"/>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="81"/>
-      <c r="AT2" s="81"/>
-      <c r="AU2" s="81"/>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="81"/>
-      <c r="AX2" s="74"/>
-      <c r="AY2" s="74"/>
-      <c r="AZ2" s="79"/>
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="79"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="83"/>
     </row>
     <row r="3" spans="1:52" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="78" t="str">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="89" t="s">
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="78" t="str">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="55" t="str">
         <f>設定情報!$C$5</f>
         <v>状態遷移図</v>
       </c>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="78"/>
-      <c r="AR3" s="78"/>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="82"/>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="78"/>
-      <c r="AZ3" s="80"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="81"/>
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="86"/>
+      <c r="AT3" s="86"/>
+      <c r="AU3" s="86"/>
+      <c r="AV3" s="86"/>
+      <c r="AW3" s="86"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="84"/>
     </row>
     <row r="4" spans="1:52" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
@@ -7263,6 +7267,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S2:AF2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:M3"/>
     <mergeCell ref="N3:R3"/>
@@ -7279,7 +7284,6 @@
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="S2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -7301,9 +7305,7 @@
   </sheetPr>
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7363,7 +7365,7 @@
   <dimension ref="B2:P31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7642,7 +7644,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>36</v>
@@ -7658,7 +7660,7 @@
         <v>38</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E21" s="36" t="s">
         <v>36</v>
@@ -7676,7 +7678,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>36</v>
@@ -7707,7 +7709,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="36"/>
@@ -7723,7 +7725,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F25" s="36"/>
     </row>
@@ -7741,7 +7743,7 @@
         <v>38</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.15">
